--- a/meta/plainApi/BlancoApiPlainPrimitiveArraySample.xlsx
+++ b/meta/plainApi/BlancoApiPlainPrimitiveArraySample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B94A437-91EC-2F40-AA37-8137874DECCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065FB512-E1D4-3643-BE13-731F18466EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="500" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19820" yWindow="1280" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="238">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -1676,23 +1676,14 @@
   </si>
   <si>
     <t>array</t>
-  </si>
-  <si>
-    <t>array</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>object</t>
-  </si>
-  <si>
-    <t>object</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>object_sample</t>
-  </si>
-  <si>
-    <t>object_sample</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1740,36 +1731,6 @@
   </si>
   <si>
     <t>正規表現</t>
-  </si>
-  <si>
-    <t>フィールド１</t>
-  </si>
-  <si>
-    <t>フィールド２</t>
-  </si>
-  <si>
-    <t>result_field_1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>result_field_2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>result_field_3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>result_field_4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>result_field_6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>result_field_5</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>必須</t>
@@ -1960,14 +1921,6 @@
     <rPh sb="19" eb="21">
       <t>オウトウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3727,88 +3680,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3820,6 +3695,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3828,6 +3706,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3859,6 +3743,12 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3868,22 +3758,73 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3893,8 +3834,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3905,8 +3858,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4487,171 +4440,171 @@
       </c>
       <c r="B1" s="18"/>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="130" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="130"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="171" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="171"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="130"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="171" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="171"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="130" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8" s="130"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="171" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="171"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130" t="s">
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="130"/>
+      <c r="E9" s="171"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="130" t="s">
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="171" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="171"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="134" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="151"/>
+      <c r="F12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="130"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="131" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="131" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="132" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="133"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="150" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:6" ht="55" customHeight="1">
-      <c r="A14" s="131" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="134" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="133"/>
+      <c r="A14" s="134" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="172" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="131" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
+      <c r="A15" s="134" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="151"/>
       <c r="F15" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="131" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
+      <c r="A16" s="134" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="151"/>
       <c r="F16" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="173" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175"/>
+      <c r="A17" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
       <c r="D17" s="104"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="160" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="161"/>
-      <c r="C18" s="162"/>
+      <c r="A18" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="136"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -4666,19 +4619,19 @@
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="170" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="172"/>
+      <c r="A20" s="147" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="149"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="91" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B21" s="100"/>
       <c r="C21" s="92"/>
@@ -4705,7 +4658,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="88" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B23" s="103"/>
       <c r="C23" s="89"/>
@@ -4718,28 +4671,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="169" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
+      <c r="A25" s="146" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="165"/>
+      <c r="B26" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
@@ -4750,12 +4703,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="106"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -4766,12 +4719,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="107"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -4782,12 +4735,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="108"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -4800,28 +4753,28 @@
       <c r="C30"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="166" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="A31" s="143" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="B32" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="95"/>
@@ -4834,14 +4787,14 @@
       <c r="A33" s="106">
         <v>1</v>
       </c>
-      <c r="B33" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -4852,12 +4805,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="107"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -4868,12 +4821,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="108"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
@@ -4898,28 +4851,28 @@
       <c r="M36"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="166" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="168"/>
+      <c r="A37" s="143" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="145"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="144" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
+      <c r="B38" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
       <c r="H38" s="95"/>
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
@@ -4930,12 +4883,12 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="106"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="149"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="168"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -4946,12 +4899,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="107"/>
-      <c r="B40" s="150"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="151"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="169"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -4962,12 +4915,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="108"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="153"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="170"/>
       <c r="H41" s="102"/>
       <c r="I41" s="102"/>
       <c r="J41" s="102"/>
@@ -4993,25 +4946,25 @@
       <c r="O42"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="169"/>
+      <c r="A43" s="146" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="105" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="105" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C44" s="105" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D44" s="105"/>
       <c r="E44" s="105"/>
@@ -5105,231 +5058,289 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="157" t="s">
+      <c r="A50" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="159"/>
-      <c r="C50" s="157" t="s">
+      <c r="B50" s="133"/>
+      <c r="C50" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="158"/>
-      <c r="E50" s="159"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="133"/>
       <c r="F50" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="154"/>
-      <c r="B51" s="156"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="156"/>
+      <c r="A51" s="138"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="139"/>
       <c r="F51" s="43"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="138"/>
-      <c r="B52" s="140"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="140"/>
+      <c r="A52" s="129"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="130"/>
       <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="138"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="140"/>
+      <c r="A53" s="129"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="130"/>
       <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="138"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="140"/>
+      <c r="A54" s="129"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="130"/>
       <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="138"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="139"/>
-      <c r="E55" s="140"/>
+      <c r="A55" s="129"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="130"/>
       <c r="F55" s="43"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="138"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="139"/>
-      <c r="E56" s="140"/>
+      <c r="A56" s="129"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="130"/>
       <c r="F56" s="43"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="138"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="139"/>
-      <c r="E57" s="140"/>
+      <c r="A57" s="129"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="130"/>
       <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="138"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="140"/>
+      <c r="A58" s="129"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="130"/>
       <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="138"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="140"/>
+      <c r="A59" s="129"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="130"/>
       <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="138"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="139"/>
-      <c r="E60" s="140"/>
+      <c r="A60" s="129"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="130"/>
       <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="138"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="139"/>
-      <c r="E61" s="140"/>
+      <c r="A61" s="129"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="130"/>
       <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="138"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="140"/>
+      <c r="A62" s="129"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="130"/>
       <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="138"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="139"/>
-      <c r="E63" s="140"/>
+      <c r="A63" s="129"/>
+      <c r="B63" s="130"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="130"/>
       <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="138"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="139"/>
-      <c r="E64" s="140"/>
+      <c r="A64" s="129"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="161"/>
+      <c r="E64" s="130"/>
       <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="138"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="139"/>
-      <c r="E65" s="140"/>
+      <c r="A65" s="129"/>
+      <c r="B65" s="130"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="161"/>
+      <c r="E65" s="130"/>
       <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="138"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="139"/>
-      <c r="E66" s="140"/>
+      <c r="A66" s="129"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="161"/>
+      <c r="E66" s="130"/>
       <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="138"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="139"/>
-      <c r="E67" s="140"/>
+      <c r="A67" s="129"/>
+      <c r="B67" s="130"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="130"/>
       <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="138"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="139"/>
-      <c r="E68" s="140"/>
+      <c r="A68" s="129"/>
+      <c r="B68" s="130"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="161"/>
+      <c r="E68" s="130"/>
       <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="138"/>
-      <c r="B69" s="140"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="139"/>
-      <c r="E69" s="140"/>
+      <c r="A69" s="129"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="129"/>
+      <c r="D69" s="161"/>
+      <c r="E69" s="130"/>
       <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="138"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="138"/>
-      <c r="D70" s="139"/>
-      <c r="E70" s="140"/>
+      <c r="A70" s="129"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="129"/>
+      <c r="D70" s="161"/>
+      <c r="E70" s="130"/>
       <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="138"/>
-      <c r="B71" s="140"/>
-      <c r="C71" s="138"/>
-      <c r="D71" s="139"/>
-      <c r="E71" s="140"/>
+      <c r="A71" s="129"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="129"/>
+      <c r="D71" s="161"/>
+      <c r="E71" s="130"/>
       <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="138"/>
-      <c r="B72" s="140"/>
-      <c r="C72" s="138"/>
-      <c r="D72" s="139"/>
-      <c r="E72" s="140"/>
+      <c r="A72" s="129"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="161"/>
+      <c r="E72" s="130"/>
       <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="138"/>
-      <c r="B73" s="140"/>
-      <c r="C73" s="138"/>
-      <c r="D73" s="139"/>
-      <c r="E73" s="140"/>
+      <c r="A73" s="129"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="161"/>
+      <c r="E73" s="130"/>
       <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="138"/>
-      <c r="B74" s="140"/>
-      <c r="C74" s="138"/>
-      <c r="D74" s="139"/>
-      <c r="E74" s="140"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="130"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="161"/>
+      <c r="E74" s="130"/>
       <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="141"/>
-      <c r="B75" s="143"/>
-      <c r="C75" s="141"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="143"/>
+      <c r="A75" s="155"/>
+      <c r="B75" s="156"/>
+      <c r="C75" s="155"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="156"/>
       <c r="F75" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A18:C18"/>
@@ -5346,74 +5357,16 @@
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5467,7 +5420,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5810,7 +5763,7 @@
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5828,25 +5781,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G4" s="124" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5854,23 +5807,23 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5879,18 +5832,18 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="42" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
       <c r="G6" s="43" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>101</v>
@@ -5898,18 +5851,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="41" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="11" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G7" s="126"/>
       <c r="H7" s="11" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>103</v>
@@ -5917,10 +5870,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="C8" s="11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="1" t="s">
@@ -5929,7 +5882,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="I9" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5993,7 +5946,7 @@
         <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -6031,7 +5984,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="46" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D7" s="33"/>
       <c r="R7"/>
@@ -6042,23 +5995,23 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="110" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D8" s="114"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="47" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="110"/>
@@ -6066,7 +6019,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="47" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="110"/>
@@ -6074,7 +6027,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="47" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="110"/>
@@ -6082,26 +6035,26 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -6118,53 +6071,53 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="46" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="111" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="133"/>
+      <c r="C17" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="151"/>
       <c r="E17" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="111" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="133" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="133"/>
+      <c r="C18" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="151"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="111" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="132" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="133"/>
+      <c r="C19" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="151"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="112" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -6182,14 +6135,14 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="112" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B21" s="113"/>
       <c r="C21" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -6207,12 +6160,12 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="112" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B22" s="113"/>
       <c r="C22" s="90"/>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -6232,28 +6185,28 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="169" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="A24" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="165"/>
+      <c r="B25" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
@@ -6270,12 +6223,12 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="106"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -6292,12 +6245,12 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="107"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -6314,12 +6267,12 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="108"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -6338,28 +6291,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="166" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
+      <c r="A30" s="143" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="144" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
+      <c r="B31" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
       <c r="J31" s="95"/>
@@ -6378,14 +6331,14 @@
       <c r="A32" s="106">
         <v>1</v>
       </c>
-      <c r="B32" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
+      <c r="B32" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -6402,12 +6355,12 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="107"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -6424,12 +6377,12 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="108"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -6466,28 +6419,28 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="168"/>
+      <c r="A36" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="144" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
+      <c r="B37" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
       <c r="H37" s="95"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -6504,12 +6457,12 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="106"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="149"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="168"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -6526,12 +6479,12 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="107"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="151"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="169"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -6548,12 +6501,12 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="108"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="153"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="170"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -6592,7 +6545,7 @@
     <row r="42" spans="1:21">
       <c r="A42" s="6"/>
       <c r="M42" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -6626,50 +6579,50 @@
       <c r="B44" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="182" t="s">
+      <c r="C44" s="178" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="180" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" s="180" t="s">
-        <v>170</v>
+      <c r="E44" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="181" t="s">
+        <v>157</v>
       </c>
       <c r="G44" s="176" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="176" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I44" s="176" t="s">
-        <v>232</v>
-      </c>
-      <c r="J44" s="180" t="s">
-        <v>233</v>
-      </c>
-      <c r="K44" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="L44" s="179" t="s">
-        <v>221</v>
+        <v>219</v>
+      </c>
+      <c r="J44" s="181" t="s">
+        <v>220</v>
+      </c>
+      <c r="K44" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="L44" s="184" t="s">
+        <v>208</v>
       </c>
       <c r="M44" s="176" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="N44" s="176" t="s">
-        <v>189</v>
-      </c>
-      <c r="O44" s="183" t="s">
+        <v>176</v>
+      </c>
+      <c r="O44" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="P44" s="184"/>
-      <c r="Q44" s="183" t="s">
+      <c r="P44" s="180"/>
+      <c r="Q44" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="184"/>
+      <c r="R44" s="180"/>
       <c r="S44" s="32" t="s">
         <v>69</v>
       </c>
@@ -6678,20 +6631,20 @@
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="178"/>
-      <c r="B45" s="178"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="181"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="177"/>
-      <c r="M45" s="178"/>
-      <c r="N45" s="177"/>
+      <c r="A45" s="177"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="177"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="182"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="177"/>
+      <c r="N45" s="183"/>
       <c r="O45" s="27" t="s">
         <v>74</v>
       </c>
@@ -6707,7 +6660,7 @@
       <c r="S45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="T45" s="178"/>
+      <c r="T45" s="177"/>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="7">
@@ -6725,17 +6678,17 @@
       <c r="E46" s="23"/>
       <c r="F46" s="128"/>
       <c r="G46" s="75" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="M46" s="120" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="N46" s="23"/>
       <c r="O46" s="23">
@@ -6766,7 +6719,7 @@
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="76" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
@@ -6774,7 +6727,7 @@
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
       <c r="M47" s="120" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="N47" s="24"/>
       <c r="O47" s="20"/>
@@ -6803,7 +6756,7 @@
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="77" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H48" s="25" t="b">
         <v>1</v>
@@ -6813,10 +6766,10 @@
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
       <c r="M48" s="120" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O48" s="20"/>
       <c r="P48" s="29"/>
@@ -6835,7 +6788,7 @@
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="73" t="s">
         <v>101</v>
@@ -6844,7 +6797,7 @@
       <c r="G49" s="78"/>
       <c r="H49" s="73"/>
       <c r="I49" s="23" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="J49" s="23" t="s">
         <v>101</v>
@@ -6852,10 +6805,10 @@
       <c r="K49" s="73"/>
       <c r="L49" s="73"/>
       <c r="M49" s="120" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O49" s="20"/>
       <c r="P49" s="29"/>
@@ -6874,10 +6827,10 @@
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="77"/>
@@ -6894,7 +6847,7 @@
       <c r="R50" s="30"/>
       <c r="S50" s="30"/>
       <c r="T50" s="14" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -6907,7 +6860,7 @@
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
@@ -6932,11 +6885,11 @@
         <v>7</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="25" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
@@ -7331,6 +7284,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A24:G24"/>
@@ -7347,25 +7319,6 @@
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B37:G37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -7422,8 +7375,8 @@
   </sheetPr>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7461,7 +7414,7 @@
         <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -7499,7 +7452,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="46" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D7" s="33"/>
       <c r="N7"/>
@@ -7516,23 +7469,23 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="46"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -7549,43 +7502,43 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="111" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="133"/>
+      <c r="C13" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="151"/>
       <c r="E13" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="27" customHeight="1">
       <c r="A14" s="111" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="185" t="s">
-        <v>236</v>
-      </c>
-      <c r="D14" s="133"/>
+      <c r="C14" s="189" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="151"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B15" s="113"/>
       <c r="C15" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -7598,14 +7551,14 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="112" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B16" s="113"/>
       <c r="C16" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -7618,14 +7571,14 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="90" t="s">
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -7640,28 +7593,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="169" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
+      <c r="A19" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
+      <c r="B20" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -7673,12 +7626,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -7690,12 +7643,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -7707,12 +7660,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -7728,29 +7681,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="166" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="168"/>
+      <c r="A25" s="143" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="144" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
+      <c r="B26" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -7765,14 +7718,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
+      <c r="B27" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -7786,14 +7739,14 @@
       <c r="A28" s="107">
         <v>2</v>
       </c>
-      <c r="B28" s="146" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
+      <c r="B28" s="166" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -7805,12 +7758,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -7839,29 +7792,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="A31" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="B32" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -7874,12 +7827,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="168"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -7892,12 +7845,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="169"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -7909,12 +7862,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="153"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="170"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -7948,7 +7901,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -7967,102 +7920,94 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="180" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="180" t="s">
+      <c r="A39" s="181" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="181" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="181" t="s">
+        <v>213</v>
+      </c>
+      <c r="J39" s="176" t="s">
+        <v>176</v>
+      </c>
+      <c r="K39" s="186" t="s">
         <v>116</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="180" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="180" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="180" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="180" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="180" t="s">
-        <v>226</v>
-      </c>
-      <c r="J39" s="176" t="s">
-        <v>189</v>
-      </c>
-      <c r="K39" s="186" t="s">
-        <v>119</v>
       </c>
       <c r="L39" s="187"/>
       <c r="M39" s="188" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N39" s="187"/>
       <c r="O39" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" s="181" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15">
+      <c r="A40" s="185"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="185"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="L40" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="180" t="s">
+      <c r="M40" s="53" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
-      <c r="C40" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="189"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="53" t="s">
+      <c r="N40" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="L40" s="53" t="s">
+      <c r="O40" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="M40" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="N40" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="O40" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="P40" s="189"/>
+      <c r="P40" s="185"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
         <v>1</v>
       </c>
-      <c r="B41" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="58" t="s">
-        <v>100</v>
-      </c>
+      <c r="B41" s="56"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58"/>
       <c r="G41" s="80"/>
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
-      <c r="J41" s="23" t="s">
-        <v>137</v>
-      </c>
+      <c r="J41" s="23"/>
       <c r="K41" s="58"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
@@ -8074,23 +8019,15 @@
       <c r="A42" s="55">
         <v>2</v>
       </c>
-      <c r="B42" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="58" t="s">
-        <v>102</v>
-      </c>
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="58"/>
       <c r="F42" s="58"/>
       <c r="G42" s="80"/>
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
-      <c r="J42" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J42" s="24"/>
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
       <c r="M42" s="56"/>
@@ -8102,21 +8039,15 @@
       <c r="A43" s="55">
         <v>3</v>
       </c>
-      <c r="B43" s="60" t="s">
-        <v>132</v>
-      </c>
+      <c r="B43" s="60"/>
       <c r="C43" s="45"/>
-      <c r="D43" s="61" t="s">
-        <v>104</v>
-      </c>
+      <c r="D43" s="61"/>
       <c r="E43" s="61"/>
       <c r="F43" s="61"/>
       <c r="G43" s="81"/>
       <c r="H43" s="61"/>
       <c r="I43" s="61"/>
-      <c r="J43" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J43" s="24"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
       <c r="M43" s="56"/>
@@ -8128,21 +8059,15 @@
       <c r="A44" s="55">
         <v>4</v>
       </c>
-      <c r="B44" s="63" t="s">
-        <v>133</v>
-      </c>
+      <c r="B44" s="63"/>
       <c r="C44" s="64"/>
-      <c r="D44" s="65" t="s">
-        <v>106</v>
-      </c>
+      <c r="D44" s="65"/>
       <c r="E44" s="65"/>
       <c r="F44" s="65"/>
       <c r="G44" s="84"/>
       <c r="H44" s="65"/>
       <c r="I44" s="65"/>
-      <c r="J44" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J44" s="24"/>
       <c r="K44" s="56"/>
       <c r="L44" s="56"/>
       <c r="M44" s="56"/>
@@ -8154,23 +8079,15 @@
       <c r="A45" s="55">
         <v>5</v>
       </c>
-      <c r="B45" s="63" t="s">
-        <v>135</v>
-      </c>
+      <c r="B45" s="63"/>
       <c r="C45" s="64"/>
-      <c r="D45" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="65" t="s">
-        <v>166</v>
-      </c>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="65"/>
       <c r="G45" s="82"/>
       <c r="H45" s="65"/>
       <c r="I45" s="65"/>
-      <c r="J45" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J45" s="24"/>
       <c r="K45" s="58"/>
       <c r="L45" s="58"/>
       <c r="M45" s="58"/>
@@ -8182,21 +8099,15 @@
       <c r="A46" s="55">
         <v>6</v>
       </c>
-      <c r="B46" s="63" t="s">
-        <v>134</v>
-      </c>
+      <c r="B46" s="63"/>
       <c r="C46" s="64"/>
-      <c r="D46" s="65" t="s">
-        <v>109</v>
-      </c>
+      <c r="D46" s="65"/>
       <c r="E46" s="65"/>
       <c r="F46" s="65"/>
       <c r="G46" s="82"/>
       <c r="H46" s="65"/>
       <c r="I46" s="65"/>
-      <c r="J46" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J46" s="24"/>
       <c r="K46" s="56"/>
       <c r="L46" s="56"/>
       <c r="M46" s="56"/>
@@ -8208,21 +8119,15 @@
       <c r="A47" s="55">
         <v>7</v>
       </c>
-      <c r="B47" s="63" t="s">
-        <v>111</v>
-      </c>
+      <c r="B47" s="63"/>
       <c r="C47" s="64"/>
-      <c r="D47" s="65" t="s">
-        <v>165</v>
-      </c>
+      <c r="D47" s="65"/>
       <c r="E47" s="65"/>
       <c r="F47" s="65"/>
       <c r="G47" s="82"/>
       <c r="H47" s="65"/>
       <c r="I47" s="65"/>
-      <c r="J47" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J47" s="24"/>
       <c r="K47" s="56"/>
       <c r="L47" s="56"/>
       <c r="M47" s="56"/>
@@ -8538,19 +8443,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="J39:J40"/>
@@ -8567,6 +8459,19 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -8656,7 +8561,7 @@
         <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -8694,7 +8599,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="46" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D7" s="33"/>
       <c r="N7"/>
@@ -8705,55 +8610,55 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="127" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="127" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46"/>
       <c r="D12" s="33"/>
       <c r="E12" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -8770,43 +8675,43 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="111" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B15" s="111"/>
-      <c r="C15" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="133"/>
+      <c r="C15" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="151"/>
       <c r="E15" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="111" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B16" s="111"/>
-      <c r="C16" s="133" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="133"/>
+      <c r="C16" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="151"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -8821,28 +8726,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="169" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
+      <c r="A19" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
+      <c r="B20" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -8854,12 +8759,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -8871,12 +8776,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -8888,12 +8793,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -8909,29 +8814,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="166" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="168"/>
+      <c r="A25" s="143" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="144" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
+      <c r="B26" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -8946,14 +8851,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
+      <c r="B27" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -8965,12 +8870,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -8982,12 +8887,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -9016,29 +8921,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="A31" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="B32" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -9051,12 +8956,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="168"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -9069,12 +8974,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="169"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -9086,12 +8991,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="153"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="170"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -9125,7 +9030,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -9144,90 +9049,90 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="180" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="180" t="s">
+      <c r="A39" s="181" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="190" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="190" t="s">
+        <v>208</v>
+      </c>
+      <c r="J39" s="176" t="s">
+        <v>176</v>
+      </c>
+      <c r="K39" s="186" t="s">
         <v>116</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="180" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="180" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="180" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="180" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="190" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="190" t="s">
-        <v>221</v>
-      </c>
-      <c r="J39" s="176" t="s">
-        <v>189</v>
-      </c>
-      <c r="K39" s="186" t="s">
-        <v>119</v>
       </c>
       <c r="L39" s="187"/>
       <c r="M39" s="188" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N39" s="187"/>
       <c r="O39" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" s="181" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15">
+      <c r="A40" s="185"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="185"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="L40" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="180" t="s">
+      <c r="M40" s="53" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
-      <c r="C40" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="189"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="53" t="s">
+      <c r="N40" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="L40" s="53" t="s">
+      <c r="O40" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="M40" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="N40" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="O40" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="P40" s="189"/>
+      <c r="P40" s="185"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
         <v>1</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>100</v>
@@ -9238,7 +9143,7 @@
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
       <c r="J41" s="23" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K41" s="58"/>
       <c r="L41" s="58"/>
@@ -9252,10 +9157,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>101</v>
@@ -9266,7 +9171,7 @@
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
       <c r="J42" s="24" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
@@ -9673,6 +9578,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -9689,19 +9607,6 @@
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -9749,8 +9654,8 @@
   </sheetPr>
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:G23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -9789,7 +9694,7 @@
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -9827,7 +9732,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="46" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D7" s="33"/>
       <c r="S7"/>
@@ -9838,23 +9743,23 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="110" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D8" s="114"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="47" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="110"/>
@@ -9862,7 +9767,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="47" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="110"/>
@@ -9870,7 +9775,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="47" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="110"/>
@@ -9878,26 +9783,26 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -9914,53 +9819,53 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="46" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="111" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="133"/>
+      <c r="C17" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="151"/>
       <c r="E17" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="111" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="133" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="133"/>
+      <c r="C18" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="151"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="111" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="132" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="133"/>
+      <c r="C19" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="151"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="112" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -9979,14 +9884,14 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="112" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B21" s="113"/>
       <c r="C21" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -10005,14 +9910,14 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="112" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B22" s="113"/>
       <c r="C22" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -10025,14 +9930,14 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="112" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B23" s="113"/>
       <c r="C23" s="90" t="s">
         <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -10047,28 +9952,28 @@
       <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="169" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
+      <c r="A25" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="165"/>
+      <c r="B26" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
@@ -10086,12 +9991,12 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="106"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -10109,12 +10014,12 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="107"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -10132,12 +10037,12 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="108"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -10157,28 +10062,28 @@
       <c r="C30"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="166" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="A31" s="143" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="B32" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="95"/>
@@ -10198,14 +10103,14 @@
       <c r="A33" s="106">
         <v>1</v>
       </c>
-      <c r="B33" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -10223,12 +10128,12 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="107"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -10246,12 +10151,12 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="108"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
@@ -10290,28 +10195,28 @@
       <c r="T36"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="168"/>
+      <c r="A37" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="145"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="144" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
+      <c r="B38" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
       <c r="H38" s="95"/>
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
@@ -10329,12 +10234,12 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="106"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="149"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="168"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -10352,12 +10257,12 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="107"/>
-      <c r="B40" s="150"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="151"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="169"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -10375,12 +10280,12 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="108"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="153"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="170"/>
       <c r="H41" s="102"/>
       <c r="I41" s="102"/>
       <c r="J41" s="102"/>
@@ -10421,7 +10326,7 @@
     <row r="43" spans="1:22">
       <c r="A43" s="6"/>
       <c r="N43" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -10456,53 +10361,53 @@
       <c r="B45" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="182" t="s">
+      <c r="C45" s="178" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="180" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="180" t="s">
-        <v>170</v>
+      <c r="E45" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="181" t="s">
+        <v>157</v>
       </c>
       <c r="G45" s="176" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="176" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I45" s="176" t="s">
-        <v>232</v>
-      </c>
-      <c r="J45" s="180" t="s">
-        <v>233</v>
-      </c>
-      <c r="K45" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="L45" s="179" t="s">
-        <v>221</v>
+        <v>219</v>
+      </c>
+      <c r="J45" s="181" t="s">
+        <v>220</v>
+      </c>
+      <c r="K45" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="L45" s="184" t="s">
+        <v>208</v>
       </c>
       <c r="M45" s="176" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="N45" s="176" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="O45" s="176" t="s">
-        <v>189</v>
-      </c>
-      <c r="P45" s="183" t="s">
+        <v>176</v>
+      </c>
+      <c r="P45" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="Q45" s="184"/>
-      <c r="R45" s="183" t="s">
+      <c r="Q45" s="180"/>
+      <c r="R45" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="S45" s="184"/>
+      <c r="S45" s="180"/>
       <c r="T45" s="32" t="s">
         <v>69</v>
       </c>
@@ -10511,21 +10416,21 @@
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="178"/>
-      <c r="B46" s="178"/>
-      <c r="C46" s="178"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="181"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
-      <c r="J46" s="181"/>
-      <c r="K46" s="181"/>
-      <c r="L46" s="177"/>
-      <c r="M46" s="178"/>
-      <c r="N46" s="178"/>
-      <c r="O46" s="177"/>
+      <c r="A46" s="177"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
+      <c r="E46" s="182"/>
+      <c r="F46" s="182"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="182"/>
+      <c r="K46" s="182"/>
+      <c r="L46" s="183"/>
+      <c r="M46" s="177"/>
+      <c r="N46" s="177"/>
+      <c r="O46" s="183"/>
       <c r="P46" s="27" t="s">
         <v>74</v>
       </c>
@@ -10541,7 +10446,7 @@
       <c r="T46" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U46" s="178"/>
+      <c r="U46" s="177"/>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="7">
@@ -10559,20 +10464,20 @@
       <c r="E47" s="23"/>
       <c r="F47" s="128"/>
       <c r="G47" s="75" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="N47" s="120" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O47" s="23"/>
       <c r="P47" s="23">
@@ -10603,7 +10508,7 @@
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
       <c r="G48" s="76" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
@@ -10612,7 +10517,7 @@
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
       <c r="N48" s="120" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O48" s="24"/>
       <c r="P48" s="20"/>
@@ -10636,7 +10541,7 @@
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="25" t="s">
         <v>101</v>
@@ -10650,7 +10555,7 @@
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
       <c r="N49" s="120" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="O49" s="24"/>
       <c r="P49" s="20"/>
@@ -10670,7 +10575,7 @@
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50" s="73" t="s">
         <v>101</v>
@@ -10679,7 +10584,7 @@
       <c r="G50" s="78"/>
       <c r="H50" s="73"/>
       <c r="I50" s="23" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="J50" s="23" t="s">
         <v>101</v>
@@ -10688,7 +10593,7 @@
       <c r="L50" s="73"/>
       <c r="M50" s="73"/>
       <c r="N50" s="120" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="O50" s="24"/>
       <c r="P50" s="20"/>
@@ -10703,16 +10608,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>95</v>
-      </c>
+      <c r="B51" s="21"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>161</v>
-      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="25"/>
       <c r="G51" s="77"/>
       <c r="H51" s="25"/>
@@ -10728,22 +10627,16 @@
       <c r="R51" s="24"/>
       <c r="S51" s="30"/>
       <c r="T51" s="30"/>
-      <c r="U51" s="14" t="s">
-        <v>163</v>
-      </c>
+      <c r="U51" s="14"/>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>96</v>
-      </c>
+      <c r="B52" s="21"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="25" t="s">
-        <v>110</v>
-      </c>
+      <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="77"/>
@@ -10767,13 +10660,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B53" s="21" t="s">
-        <v>112</v>
-      </c>
+      <c r="B53" s="21"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="25" t="s">
-        <v>161</v>
-      </c>
+      <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
       <c r="G53" s="77"/>
@@ -11185,6 +11074,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -11197,30 +11110,6 @@
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B33:G33"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
@@ -11281,7 +11170,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:G23"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -11319,7 +11208,7 @@
         <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -11357,7 +11246,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="46" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D7" s="33"/>
       <c r="N7"/>
@@ -11374,23 +11263,23 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="46"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -11407,43 +11296,43 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="111" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="133"/>
+      <c r="C13" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="151"/>
       <c r="E13" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="111" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="133" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="133"/>
+      <c r="C14" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="151"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B15" s="113"/>
       <c r="C15" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -11456,14 +11345,14 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="112" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B16" s="113"/>
       <c r="C16" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -11476,14 +11365,14 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="90" t="s">
         <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -11498,28 +11387,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="169" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
+      <c r="A19" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
+      <c r="B20" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -11531,12 +11420,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -11548,12 +11437,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -11565,12 +11454,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -11586,29 +11475,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="166" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="168"/>
+      <c r="A25" s="143" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="144" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
+      <c r="B26" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -11623,14 +11512,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
+      <c r="B27" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -11642,12 +11531,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -11659,12 +11548,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -11693,29 +11582,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="A31" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="B32" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -11728,12 +11617,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="168"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -11746,12 +11635,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="169"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -11763,12 +11652,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="153"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="170"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -11802,7 +11691,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -11821,102 +11710,94 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="180" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="180" t="s">
+      <c r="A39" s="181" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="181" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="181" t="s">
+        <v>213</v>
+      </c>
+      <c r="J39" s="176" t="s">
+        <v>176</v>
+      </c>
+      <c r="K39" s="186" t="s">
         <v>116</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="180" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="180" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="180" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="180" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="180" t="s">
-        <v>226</v>
-      </c>
-      <c r="J39" s="176" t="s">
-        <v>189</v>
-      </c>
-      <c r="K39" s="186" t="s">
-        <v>119</v>
       </c>
       <c r="L39" s="187"/>
       <c r="M39" s="188" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N39" s="187"/>
       <c r="O39" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" s="181" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15">
+      <c r="A40" s="185"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="185"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="L40" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="180" t="s">
+      <c r="M40" s="53" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
-      <c r="C40" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="189"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="53" t="s">
+      <c r="N40" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="L40" s="53" t="s">
+      <c r="O40" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="M40" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="N40" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="O40" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="P40" s="189"/>
+      <c r="P40" s="185"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
         <v>1</v>
       </c>
-      <c r="B41" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="58" t="s">
-        <v>100</v>
-      </c>
+      <c r="B41" s="56"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58"/>
       <c r="G41" s="80"/>
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
-      <c r="J41" s="23" t="s">
-        <v>137</v>
-      </c>
+      <c r="J41" s="23"/>
       <c r="K41" s="58"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
@@ -11928,23 +11809,15 @@
       <c r="A42" s="55">
         <v>2</v>
       </c>
-      <c r="B42" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="58" t="s">
-        <v>102</v>
-      </c>
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="58"/>
       <c r="F42" s="58"/>
       <c r="G42" s="80"/>
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
-      <c r="J42" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J42" s="24"/>
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
       <c r="M42" s="56"/>
@@ -11956,21 +11829,15 @@
       <c r="A43" s="55">
         <v>3</v>
       </c>
-      <c r="B43" s="60" t="s">
-        <v>132</v>
-      </c>
+      <c r="B43" s="60"/>
       <c r="C43" s="45"/>
-      <c r="D43" s="61" t="s">
-        <v>104</v>
-      </c>
+      <c r="D43" s="61"/>
       <c r="E43" s="61"/>
       <c r="F43" s="61"/>
       <c r="G43" s="81"/>
       <c r="H43" s="61"/>
       <c r="I43" s="61"/>
-      <c r="J43" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J43" s="24"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
       <c r="M43" s="56"/>
@@ -11982,21 +11849,15 @@
       <c r="A44" s="55">
         <v>4</v>
       </c>
-      <c r="B44" s="63" t="s">
-        <v>133</v>
-      </c>
+      <c r="B44" s="63"/>
       <c r="C44" s="64"/>
-      <c r="D44" s="65" t="s">
-        <v>106</v>
-      </c>
+      <c r="D44" s="65"/>
       <c r="E44" s="65"/>
       <c r="F44" s="65"/>
       <c r="G44" s="84"/>
       <c r="H44" s="65"/>
       <c r="I44" s="65"/>
-      <c r="J44" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J44" s="24"/>
       <c r="K44" s="56"/>
       <c r="L44" s="56"/>
       <c r="M44" s="56"/>
@@ -12008,23 +11869,15 @@
       <c r="A45" s="55">
         <v>5</v>
       </c>
-      <c r="B45" s="63" t="s">
-        <v>135</v>
-      </c>
+      <c r="B45" s="63"/>
       <c r="C45" s="64"/>
-      <c r="D45" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="65" t="s">
-        <v>161</v>
-      </c>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="65"/>
       <c r="G45" s="82"/>
       <c r="H45" s="65"/>
       <c r="I45" s="65"/>
-      <c r="J45" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J45" s="24"/>
       <c r="K45" s="58"/>
       <c r="L45" s="58"/>
       <c r="M45" s="58"/>
@@ -12036,21 +11889,15 @@
       <c r="A46" s="55">
         <v>6</v>
       </c>
-      <c r="B46" s="63" t="s">
-        <v>134</v>
-      </c>
+      <c r="B46" s="63"/>
       <c r="C46" s="64"/>
-      <c r="D46" s="65" t="s">
-        <v>109</v>
-      </c>
+      <c r="D46" s="65"/>
       <c r="E46" s="65"/>
       <c r="F46" s="65"/>
       <c r="G46" s="82"/>
       <c r="H46" s="65"/>
       <c r="I46" s="65"/>
-      <c r="J46" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J46" s="24"/>
       <c r="K46" s="56"/>
       <c r="L46" s="56"/>
       <c r="M46" s="56"/>
@@ -12062,21 +11909,15 @@
       <c r="A47" s="55">
         <v>7</v>
       </c>
-      <c r="B47" s="63" t="s">
-        <v>111</v>
-      </c>
+      <c r="B47" s="63"/>
       <c r="C47" s="64"/>
-      <c r="D47" s="65" t="s">
-        <v>161</v>
-      </c>
+      <c r="D47" s="65"/>
       <c r="E47" s="65"/>
       <c r="F47" s="65"/>
       <c r="G47" s="82"/>
       <c r="H47" s="65"/>
       <c r="I47" s="65"/>
-      <c r="J47" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J47" s="24"/>
       <c r="K47" s="56"/>
       <c r="L47" s="56"/>
       <c r="M47" s="56"/>
@@ -12392,6 +12233,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -12404,23 +12262,6 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -12510,7 +12351,7 @@
         <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -12548,7 +12389,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="46" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D7" s="33"/>
       <c r="N7"/>
@@ -12559,55 +12400,55 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="127" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="127" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46"/>
       <c r="D12" s="33"/>
       <c r="E12" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -12624,43 +12465,43 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="111" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B15" s="111"/>
-      <c r="C15" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="133"/>
+      <c r="C15" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="151"/>
       <c r="E15" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="111" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B16" s="111"/>
-      <c r="C16" s="133" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="133"/>
+      <c r="C16" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="151"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -12675,28 +12516,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="169" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
+      <c r="A19" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
+      <c r="B20" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -12708,12 +12549,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -12725,12 +12566,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -12742,12 +12583,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -12763,29 +12604,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="166" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="168"/>
+      <c r="A25" s="143" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="144" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
+      <c r="B26" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -12800,14 +12641,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
+      <c r="B27" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -12819,12 +12660,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -12836,12 +12677,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -12870,29 +12711,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="A31" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="B32" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -12905,12 +12746,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="168"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -12923,12 +12764,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="169"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -12940,12 +12781,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="153"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="170"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -12979,7 +12820,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -12998,90 +12839,90 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="180" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="180" t="s">
+      <c r="A39" s="181" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="190" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="190" t="s">
+        <v>208</v>
+      </c>
+      <c r="J39" s="176" t="s">
+        <v>176</v>
+      </c>
+      <c r="K39" s="186" t="s">
         <v>116</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="180" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="180" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="180" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="180" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="190" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="190" t="s">
-        <v>221</v>
-      </c>
-      <c r="J39" s="176" t="s">
-        <v>189</v>
-      </c>
-      <c r="K39" s="186" t="s">
-        <v>119</v>
       </c>
       <c r="L39" s="187"/>
       <c r="M39" s="188" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N39" s="187"/>
       <c r="O39" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" s="181" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15">
+      <c r="A40" s="185"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="185"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="L40" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="180" t="s">
+      <c r="M40" s="53" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
-      <c r="C40" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="189"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="53" t="s">
+      <c r="N40" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="L40" s="53" t="s">
+      <c r="O40" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="M40" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="N40" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="O40" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="P40" s="189"/>
+      <c r="P40" s="185"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
         <v>1</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>100</v>
@@ -13092,7 +12933,7 @@
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
       <c r="J41" s="23" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K41" s="58"/>
       <c r="L41" s="58"/>
@@ -13106,10 +12947,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>101</v>
@@ -13120,7 +12961,7 @@
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
       <c r="J42" s="24" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
@@ -13527,6 +13368,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -13539,23 +13397,6 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -13603,8 +13444,8 @@
   </sheetPr>
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -13643,7 +13484,7 @@
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -13681,7 +13522,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="46" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D7" s="33"/>
       <c r="S7"/>
@@ -13692,23 +13533,23 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="110" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D8" s="114"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="47" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="110"/>
@@ -13716,7 +13557,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="47" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="110"/>
@@ -13724,7 +13565,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="47" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="110"/>
@@ -13732,26 +13573,26 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -13768,53 +13609,53 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="46" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="111" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="133"/>
+      <c r="C17" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="151"/>
       <c r="E17" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="111" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="133" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="133"/>
+      <c r="C18" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="151"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="111" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="132" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="133"/>
+      <c r="C19" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="151"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="112" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -13833,14 +13674,14 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="112" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B21" s="113"/>
       <c r="C21" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -13859,14 +13700,14 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="112" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B22" s="113"/>
       <c r="C22" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -13879,14 +13720,14 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="112" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B23" s="113"/>
       <c r="C23" s="90" t="s">
         <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -13901,28 +13742,28 @@
       <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="169" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
+      <c r="A25" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="165"/>
+      <c r="B26" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
@@ -13940,12 +13781,12 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="106"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -13963,12 +13804,12 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="107"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -13986,12 +13827,12 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="108"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -14011,28 +13852,28 @@
       <c r="C30"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="166" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="A31" s="143" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="B32" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="95"/>
@@ -14052,14 +13893,14 @@
       <c r="A33" s="106">
         <v>1</v>
       </c>
-      <c r="B33" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -14077,12 +13918,12 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="107"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -14100,12 +13941,12 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="108"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
@@ -14144,28 +13985,28 @@
       <c r="T36"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="168"/>
+      <c r="A37" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="145"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="144" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
+      <c r="B38" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
       <c r="H38" s="95"/>
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
@@ -14183,12 +14024,12 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="106"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="149"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="168"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -14206,12 +14047,12 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="107"/>
-      <c r="B40" s="150"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="151"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="169"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -14229,12 +14070,12 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="108"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="153"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="170"/>
       <c r="H41" s="102"/>
       <c r="I41" s="102"/>
       <c r="J41" s="102"/>
@@ -14275,7 +14116,7 @@
     <row r="43" spans="1:22">
       <c r="A43" s="6"/>
       <c r="N43" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -14310,53 +14151,53 @@
       <c r="B45" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="182" t="s">
+      <c r="C45" s="178" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="180" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="180" t="s">
-        <v>170</v>
+      <c r="E45" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="181" t="s">
+        <v>157</v>
       </c>
       <c r="G45" s="176" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="176" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I45" s="176" t="s">
-        <v>232</v>
-      </c>
-      <c r="J45" s="180" t="s">
-        <v>233</v>
-      </c>
-      <c r="K45" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="L45" s="179" t="s">
-        <v>221</v>
+        <v>219</v>
+      </c>
+      <c r="J45" s="181" t="s">
+        <v>220</v>
+      </c>
+      <c r="K45" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="L45" s="184" t="s">
+        <v>208</v>
       </c>
       <c r="M45" s="176" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="N45" s="176" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="O45" s="176" t="s">
-        <v>189</v>
-      </c>
-      <c r="P45" s="183" t="s">
+        <v>176</v>
+      </c>
+      <c r="P45" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="Q45" s="184"/>
-      <c r="R45" s="183" t="s">
+      <c r="Q45" s="180"/>
+      <c r="R45" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="S45" s="184"/>
+      <c r="S45" s="180"/>
       <c r="T45" s="32" t="s">
         <v>69</v>
       </c>
@@ -14365,21 +14206,21 @@
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="178"/>
-      <c r="B46" s="178"/>
-      <c r="C46" s="178"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="181"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
-      <c r="J46" s="181"/>
-      <c r="K46" s="181"/>
-      <c r="L46" s="177"/>
-      <c r="M46" s="178"/>
-      <c r="N46" s="178"/>
-      <c r="O46" s="177"/>
+      <c r="A46" s="177"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
+      <c r="E46" s="182"/>
+      <c r="F46" s="182"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="182"/>
+      <c r="K46" s="182"/>
+      <c r="L46" s="183"/>
+      <c r="M46" s="177"/>
+      <c r="N46" s="177"/>
+      <c r="O46" s="183"/>
       <c r="P46" s="27" t="s">
         <v>74</v>
       </c>
@@ -14395,7 +14236,7 @@
       <c r="T46" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U46" s="178"/>
+      <c r="U46" s="177"/>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="7">
@@ -14413,20 +14254,20 @@
       <c r="E47" s="23"/>
       <c r="F47" s="128"/>
       <c r="G47" s="75" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="N47" s="120" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O47" s="23"/>
       <c r="P47" s="23">
@@ -14457,7 +14298,7 @@
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
       <c r="G48" s="76" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
@@ -14466,7 +14307,7 @@
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
       <c r="N48" s="120" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O48" s="24"/>
       <c r="P48" s="20"/>
@@ -14490,7 +14331,7 @@
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="25" t="s">
         <v>101</v>
@@ -14504,7 +14345,7 @@
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
       <c r="N49" s="120" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="O49" s="24"/>
       <c r="P49" s="20"/>
@@ -14524,7 +14365,7 @@
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50" s="73" t="s">
         <v>101</v>
@@ -14533,7 +14374,7 @@
       <c r="G50" s="78"/>
       <c r="H50" s="73"/>
       <c r="I50" s="23" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="J50" s="23" t="s">
         <v>101</v>
@@ -14542,7 +14383,7 @@
       <c r="L50" s="73"/>
       <c r="M50" s="73"/>
       <c r="N50" s="120" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="O50" s="24"/>
       <c r="P50" s="20"/>
@@ -14557,16 +14398,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>95</v>
-      </c>
+      <c r="B51" s="21"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>161</v>
-      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="25"/>
       <c r="G51" s="77"/>
       <c r="H51" s="25"/>
@@ -14582,22 +14417,16 @@
       <c r="R51" s="24"/>
       <c r="S51" s="30"/>
       <c r="T51" s="30"/>
-      <c r="U51" s="14" t="s">
-        <v>163</v>
-      </c>
+      <c r="U51" s="14"/>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>96</v>
-      </c>
+      <c r="B52" s="21"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="25" t="s">
-        <v>110</v>
-      </c>
+      <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="77"/>
@@ -14621,13 +14450,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B53" s="21" t="s">
-        <v>112</v>
-      </c>
+      <c r="B53" s="21"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="25" t="s">
-        <v>161</v>
-      </c>
+      <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
       <c r="G53" s="77"/>
@@ -15039,11 +14864,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="U45:U46"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="H45:H46"/>
@@ -15051,30 +14895,11 @@
     <mergeCell ref="J45:J46"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="L45:L46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
@@ -15135,7 +14960,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -15173,7 +14998,7 @@
         <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -15211,7 +15036,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="46" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D7" s="33"/>
       <c r="N7"/>
@@ -15228,23 +15053,23 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="46"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -15261,43 +15086,43 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="111" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="133"/>
+      <c r="C13" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="151"/>
       <c r="E13" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="111" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="133" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="133"/>
+      <c r="C14" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="151"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B15" s="113"/>
       <c r="C15" s="90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -15310,12 +15135,12 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="112" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B16" s="113"/>
       <c r="C16" s="90"/>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -15328,14 +15153,14 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="90" t="s">
         <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -15350,28 +15175,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="169" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
+      <c r="A19" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
+      <c r="B20" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -15383,12 +15208,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -15400,12 +15225,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -15417,12 +15242,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -15438,29 +15263,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="166" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="168"/>
+      <c r="A25" s="143" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="144" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
+      <c r="B26" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -15475,14 +15300,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
+      <c r="B27" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -15494,12 +15319,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -15511,12 +15336,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -15545,29 +15370,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="A31" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="B32" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -15580,12 +15405,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="168"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -15598,12 +15423,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="169"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -15615,12 +15440,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="153"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="170"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -15654,7 +15479,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -15673,102 +15498,94 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="180" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="180" t="s">
+      <c r="A39" s="181" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="181" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="181" t="s">
+        <v>213</v>
+      </c>
+      <c r="J39" s="176" t="s">
+        <v>176</v>
+      </c>
+      <c r="K39" s="186" t="s">
         <v>116</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="180" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="180" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="180" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="180" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="180" t="s">
-        <v>226</v>
-      </c>
-      <c r="J39" s="176" t="s">
-        <v>189</v>
-      </c>
-      <c r="K39" s="186" t="s">
-        <v>119</v>
       </c>
       <c r="L39" s="187"/>
       <c r="M39" s="188" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N39" s="187"/>
       <c r="O39" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" s="181" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15">
+      <c r="A40" s="185"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="185"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="L40" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="180" t="s">
+      <c r="M40" s="53" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
-      <c r="C40" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="189"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="53" t="s">
+      <c r="N40" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="L40" s="53" t="s">
+      <c r="O40" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="M40" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="N40" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="O40" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="P40" s="189"/>
+      <c r="P40" s="185"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
         <v>1</v>
       </c>
-      <c r="B41" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="58" t="s">
-        <v>100</v>
-      </c>
+      <c r="B41" s="56"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58"/>
       <c r="G41" s="80"/>
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
-      <c r="J41" s="23" t="s">
-        <v>137</v>
-      </c>
+      <c r="J41" s="23"/>
       <c r="K41" s="58"/>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
@@ -15780,23 +15597,15 @@
       <c r="A42" s="55">
         <v>2</v>
       </c>
-      <c r="B42" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="58" t="s">
-        <v>102</v>
-      </c>
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="58"/>
       <c r="F42" s="58"/>
       <c r="G42" s="80"/>
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
-      <c r="J42" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J42" s="24"/>
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
       <c r="M42" s="56"/>
@@ -15808,21 +15617,15 @@
       <c r="A43" s="55">
         <v>3</v>
       </c>
-      <c r="B43" s="60" t="s">
-        <v>132</v>
-      </c>
+      <c r="B43" s="60"/>
       <c r="C43" s="45"/>
-      <c r="D43" s="61" t="s">
-        <v>104</v>
-      </c>
+      <c r="D43" s="61"/>
       <c r="E43" s="61"/>
       <c r="F43" s="61"/>
       <c r="G43" s="81"/>
       <c r="H43" s="61"/>
       <c r="I43" s="61"/>
-      <c r="J43" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J43" s="24"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
       <c r="M43" s="56"/>
@@ -15834,21 +15637,15 @@
       <c r="A44" s="55">
         <v>4</v>
       </c>
-      <c r="B44" s="63" t="s">
-        <v>133</v>
-      </c>
+      <c r="B44" s="63"/>
       <c r="C44" s="64"/>
-      <c r="D44" s="65" t="s">
-        <v>106</v>
-      </c>
+      <c r="D44" s="65"/>
       <c r="E44" s="65"/>
       <c r="F44" s="65"/>
       <c r="G44" s="84"/>
       <c r="H44" s="65"/>
       <c r="I44" s="65"/>
-      <c r="J44" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J44" s="24"/>
       <c r="K44" s="56"/>
       <c r="L44" s="56"/>
       <c r="M44" s="56"/>
@@ -15860,23 +15657,15 @@
       <c r="A45" s="55">
         <v>5</v>
       </c>
-      <c r="B45" s="63" t="s">
-        <v>135</v>
-      </c>
+      <c r="B45" s="63"/>
       <c r="C45" s="64"/>
-      <c r="D45" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="65" t="s">
-        <v>161</v>
-      </c>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="65"/>
       <c r="G45" s="82"/>
       <c r="H45" s="65"/>
       <c r="I45" s="65"/>
-      <c r="J45" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J45" s="24"/>
       <c r="K45" s="58"/>
       <c r="L45" s="58"/>
       <c r="M45" s="58"/>
@@ -15888,21 +15677,15 @@
       <c r="A46" s="55">
         <v>6</v>
       </c>
-      <c r="B46" s="63" t="s">
-        <v>134</v>
-      </c>
+      <c r="B46" s="63"/>
       <c r="C46" s="64"/>
-      <c r="D46" s="65" t="s">
-        <v>109</v>
-      </c>
+      <c r="D46" s="65"/>
       <c r="E46" s="65"/>
       <c r="F46" s="65"/>
       <c r="G46" s="82"/>
       <c r="H46" s="65"/>
       <c r="I46" s="65"/>
-      <c r="J46" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J46" s="24"/>
       <c r="K46" s="56"/>
       <c r="L46" s="56"/>
       <c r="M46" s="56"/>
@@ -15914,21 +15697,15 @@
       <c r="A47" s="55">
         <v>7</v>
       </c>
-      <c r="B47" s="63" t="s">
-        <v>111</v>
-      </c>
+      <c r="B47" s="63"/>
       <c r="C47" s="64"/>
-      <c r="D47" s="65" t="s">
-        <v>161</v>
-      </c>
+      <c r="D47" s="65"/>
       <c r="E47" s="65"/>
       <c r="F47" s="65"/>
       <c r="G47" s="82"/>
       <c r="H47" s="65"/>
       <c r="I47" s="65"/>
-      <c r="J47" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="J47" s="24"/>
       <c r="K47" s="56"/>
       <c r="L47" s="56"/>
       <c r="M47" s="56"/>
@@ -16244,6 +16021,28 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="H39:H40"/>
@@ -16251,28 +16050,6 @@
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">

--- a/meta/plainApi/BlancoApiPlainPrimitiveArraySample.xlsx
+++ b/meta/plainApi/BlancoApiPlainPrimitiveArraySample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065FB512-E1D4-3643-BE13-731F18466EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2828AC04-9BED-2D4F-A1E3-5B9C9C543ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19820" yWindow="1280" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19820" yWindow="1280" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="240">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2525,6 +2525,26 @@
   </si>
   <si>
     <t>PUT</t>
+  </si>
+  <si>
+    <t>電文がOption</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>/* ペイロード電文が省略可能 */</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -9654,7 +9674,7 @@
   </sheetPr>
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -13442,10 +13462,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -13739,77 +13759,74 @@
       <c r="O23"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="6"/>
+      <c r="A24" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="113"/>
+      <c r="C24" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="146" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="105" t="s">
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="140" t="s">
+      <c r="B27" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="106"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="107"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -13826,13 +13843,13 @@
       <c r="V28"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="108"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -13849,81 +13866,81 @@
       <c r="V29"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="C30"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="143" t="s">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="143" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="105" t="s">
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="145"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="164" t="s">
+      <c r="B33" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="106">
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="106">
         <v>1</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B34" s="165" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="107"/>
-      <c r="B34" s="166"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -13940,13 +13957,13 @@
       <c r="V34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="108"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
@@ -13963,96 +13980,96 @@
       <c r="V35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
       <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="143" t="s">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="143" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="145"/>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="105" t="s">
+      <c r="B38" s="144"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="145"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="164" t="s">
+      <c r="B39" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="164"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="106"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="102"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="102"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
+      <c r="U39" s="101"/>
+      <c r="V39" s="101"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="107"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="169"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="168"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -14069,13 +14086,13 @@
       <c r="V40"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="108"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="170"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="169"/>
       <c r="H41" s="102"/>
       <c r="I41" s="102"/>
       <c r="J41" s="102"/>
@@ -14092,296 +14109,281 @@
       <c r="V41"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="102"/>
+      <c r="N42" s="102"/>
+      <c r="O42" s="102"/>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="102"/>
+      <c r="R42" s="102"/>
       <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="6"/>
-      <c r="N43" s="1" t="s">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="6"/>
+      <c r="N44" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:22">
+      <c r="A45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="5"/>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="176" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="5"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="176" t="s">
+      <c r="B46" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="178" t="s">
+      <c r="C46" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="176" t="s">
+      <c r="D46" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="181" t="s">
+      <c r="E46" s="181" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="181" t="s">
+      <c r="F46" s="181" t="s">
         <v>157</v>
       </c>
-      <c r="G45" s="176" t="s">
+      <c r="G46" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="176" t="s">
+      <c r="H46" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="I45" s="176" t="s">
+      <c r="I46" s="176" t="s">
         <v>219</v>
       </c>
-      <c r="J45" s="181" t="s">
+      <c r="J46" s="181" t="s">
         <v>220</v>
       </c>
-      <c r="K45" s="181" t="s">
+      <c r="K46" s="181" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="184" t="s">
+      <c r="L46" s="184" t="s">
         <v>208</v>
       </c>
-      <c r="M45" s="176" t="s">
+      <c r="M46" s="176" t="s">
         <v>208</v>
       </c>
-      <c r="N45" s="176" t="s">
+      <c r="N46" s="176" t="s">
         <v>205</v>
       </c>
-      <c r="O45" s="176" t="s">
+      <c r="O46" s="176" t="s">
         <v>176</v>
       </c>
-      <c r="P45" s="179" t="s">
+      <c r="P46" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="Q45" s="180"/>
-      <c r="R45" s="179" t="s">
+      <c r="Q46" s="180"/>
+      <c r="R46" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="S45" s="180"/>
-      <c r="T45" s="32" t="s">
+      <c r="S46" s="180"/>
+      <c r="T46" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="U45" s="176" t="s">
+      <c r="U46" s="176" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="177"/>
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="182"/>
-      <c r="F46" s="182"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="177"/>
-      <c r="J46" s="182"/>
-      <c r="K46" s="182"/>
-      <c r="L46" s="183"/>
-      <c r="M46" s="177"/>
-      <c r="N46" s="177"/>
-      <c r="O46" s="183"/>
-      <c r="P46" s="27" t="s">
+    <row r="47" spans="1:22">
+      <c r="A47" s="177"/>
+      <c r="B47" s="177"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="177"/>
+      <c r="H47" s="177"/>
+      <c r="I47" s="177"/>
+      <c r="J47" s="182"/>
+      <c r="K47" s="182"/>
+      <c r="L47" s="183"/>
+      <c r="M47" s="177"/>
+      <c r="N47" s="177"/>
+      <c r="O47" s="183"/>
+      <c r="P47" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="Q46" s="27" t="s">
+      <c r="Q47" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="R46" s="27" t="s">
+      <c r="R47" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S46" s="27" t="s">
+      <c r="S47" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="T46" s="27" t="s">
+      <c r="T47" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U46" s="177"/>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="7">
+      <c r="U47" s="177"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="7">
         <v>1</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B48" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D48" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="75" t="s">
+      <c r="E48" s="23"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23" t="s">
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="M47" s="23" t="s">
+      <c r="M48" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="N47" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="28">
-        <v>10</v>
-      </c>
-      <c r="R47" s="23"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="9"/>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="10">
-        <f t="shared" ref="A48:A53" si="0">A47+1</f>
-        <v>2</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
       <c r="N48" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="O48" s="24"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="20">
+      <c r="O48" s="23"/>
+      <c r="P48" s="23">
         <v>0</v>
       </c>
-      <c r="S48" s="29">
-        <v>100</v>
-      </c>
-      <c r="T48" s="29"/>
-      <c r="U48" s="12"/>
+      <c r="Q48" s="28">
+        <v>10</v>
+      </c>
+      <c r="R48" s="23"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="9"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
+        <f t="shared" ref="A49:A54" si="0">A48+1</f>
+        <v>2</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
       <c r="N49" s="120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O49" s="24"/>
       <c r="P49" s="20"/>
       <c r="Q49" s="29"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="29"/>
+      <c r="R49" s="20">
+        <v>0</v>
+      </c>
+      <c r="S49" s="29">
+        <v>100</v>
+      </c>
       <c r="T49" s="29"/>
-      <c r="U49" s="14"/>
+      <c r="U49" s="12"/>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="73" t="s">
+      <c r="E50" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="73"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="J50" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="73"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
       <c r="N50" s="120" t="s">
         <v>185</v>
       </c>
@@ -14396,33 +14398,45 @@
     <row r="51" spans="1:21">
       <c r="A51" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B51" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="120"/>
+      <c r="D51" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="73"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="120" t="s">
+        <v>185</v>
+      </c>
       <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
       <c r="U51" s="14"/>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="13"/>
@@ -14438,17 +14452,17 @@
       <c r="M52" s="25"/>
       <c r="N52" s="120"/>
       <c r="O52" s="24"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
       <c r="U52" s="14"/>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="13"/>
@@ -14472,7 +14486,10 @@
       <c r="U53" s="14"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="10"/>
+      <c r="A54" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="B54" s="21"/>
       <c r="C54" s="13"/>
       <c r="D54" s="25"/>
@@ -14510,11 +14527,11 @@
       <c r="M55" s="25"/>
       <c r="N55" s="120"/>
       <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
       <c r="U55" s="14"/>
     </row>
     <row r="56" spans="1:21">
@@ -14533,11 +14550,11 @@
       <c r="M56" s="25"/>
       <c r="N56" s="120"/>
       <c r="O56" s="24"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
       <c r="U56" s="14"/>
     </row>
     <row r="57" spans="1:21">
@@ -14648,11 +14665,11 @@
       <c r="M61" s="25"/>
       <c r="N61" s="120"/>
       <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
       <c r="U61" s="14"/>
     </row>
     <row r="62" spans="1:21">
@@ -14671,11 +14688,11 @@
       <c r="M62" s="25"/>
       <c r="N62" s="120"/>
       <c r="O62" s="24"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
       <c r="U62" s="14"/>
     </row>
     <row r="63" spans="1:21">
@@ -14763,11 +14780,11 @@
       <c r="M66" s="25"/>
       <c r="N66" s="120"/>
       <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
       <c r="U66" s="14"/>
     </row>
     <row r="67" spans="1:21">
@@ -14786,11 +14803,11 @@
       <c r="M67" s="25"/>
       <c r="N67" s="120"/>
       <c r="O67" s="24"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
       <c r="U67" s="14"/>
     </row>
     <row r="68" spans="1:21">
@@ -14832,74 +14849,97 @@
       <c r="M69" s="25"/>
       <c r="N69" s="120"/>
       <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
       <c r="U69" s="14"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="15"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
       <c r="N70" s="120"/>
-      <c r="O70" s="26"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="31"/>
-      <c r="T70" s="31"/>
-      <c r="U70" s="17"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="14"/>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="15"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="120"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="31"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="B33:G33"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="A38:G38"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B41:G41"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="U46:U47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
@@ -14909,13 +14949,13 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{73ED4037-84C6-384F-9BB3-F220D6F50C92}">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C22" xr:uid="{F9695858-D2DE-AC49-9C31-89BA6E5DB4B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C22 C24" xr:uid="{F9695858-D2DE-AC49-9C31-89BA6E5DB4B3}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O47:O70" xr:uid="{170CE6AE-7C83-B549-8E07-3DA54B0AB7FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O48:O71" xr:uid="{170CE6AE-7C83-B549-8E07-3DA54B0AB7FF}">
       <formula1>isNullable</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N47:N70" xr:uid="{A26A81EC-4D4D-0F49-AD7C-47FBDF87ABCE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N48:N71" xr:uid="{A26A81EC-4D4D-0F49-AD7C-47FBDF87ABCE}">
       <formula1>path</formula1>
     </dataValidation>
   </dataValidations>
@@ -14932,7 +14972,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G47:G70</xm:sqref>
+          <xm:sqref>G48:G71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{68B0DCAD-4638-4E43-9F8B-2FE84F5CA988}">
           <x14:formula1>
@@ -14959,7 +14999,7 @@
   </sheetPr>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
